--- a/BNP Trades Tracker-2025-10-15 v1.xlsx
+++ b/BNP Trades Tracker-2025-10-15 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\All Data\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5CEEE-103D-436D-8994-80BD4E139420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F86464-C608-4E34-8674-D0222AF8459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="851" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="851" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACAFP Basis" sheetId="1" r:id="rId1"/>
@@ -1208,423 +1208,423 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4032742419</v>
+        <v>#N/A Requesting Data...1482219601</v>
         <stp/>
         <stp>BDH|16217197198260377533</stp>
         <tr r="V3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3988921689</v>
+        <v>#N/A Requesting Data...4001102992</v>
         <stp/>
         <stp>BDH|14953065292270108664</stp>
         <tr r="X3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4182258034</v>
+        <v>#N/A Requesting Data...4200761240</v>
         <stp/>
         <stp>BDH|11019236865447233988</stp>
         <tr r="B52" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086038592</v>
+        <v>#N/A Requesting Data...3950617935</v>
         <stp/>
         <stp>BDH|12762495804554385970</stp>
         <tr r="R3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3882094927</v>
+        <v>#N/A Requesting Data...3017984801</v>
         <stp/>
         <stp>BDP|11883986536691201393</stp>
         <tr r="C10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572653851</v>
+        <v>#N/A Requesting Data...1887005026</v>
         <stp/>
         <stp>BDH|11209440807884130889</stp>
         <tr r="N3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207879108</v>
+        <v>#N/A Requesting Data...3202656831</v>
         <stp/>
         <stp>BDP|18062887627254797806</stp>
         <tr r="C10" s="12"/>
         <tr r="E10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3443410042</v>
+        <v>#N/A Requesting Data...3547955231</v>
         <stp/>
         <stp>BDP|16545953933052450030</stp>
         <tr r="B10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3669823412</v>
+        <v>#N/A Requesting Data...1404742040</v>
         <stp/>
         <stp>BDH|16942176402709918102</stp>
         <tr r="Q2" s="17"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3467412879</v>
+        <v>#N/A Requesting Data...1714350505</v>
         <stp/>
         <stp>BDH|11343349088127336104</stp>
         <tr r="V3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3772076140</v>
+        <v>#N/A Requesting Data...4020522864</v>
         <stp/>
         <stp>BDP|14650062796027575721</stp>
         <tr r="G10" s="12"/>
         <tr r="E10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3453635240</v>
+        <v>#N/A Requesting Data...1638157791</v>
         <stp/>
         <stp>BDH|17995649280217179388</stp>
         <tr r="L3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3979148685</v>
+        <v>#N/A Requesting Data...3222771599</v>
         <stp/>
         <stp>BDH|16598613571762748890</stp>
         <tr r="Z3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572138210</v>
+        <v>#N/A Requesting Data...3918564114</v>
         <stp/>
         <stp>BDH|12638400257716906726</stp>
         <tr r="AF3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3655726494</v>
+        <v>#N/A Requesting Data...1735749552</v>
         <stp/>
         <stp>BDP|12076286461161277423</stp>
         <tr r="C10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4199367250</v>
+        <v>#N/A Requesting Data...1846230896</v>
         <stp/>
         <stp>BDP|14602333172280113394</stp>
         <tr r="C10" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3747488591</v>
+        <v>#N/A Requesting Data...1526264608</v>
         <stp/>
         <stp>BDH|10504776542674627469</stp>
         <tr r="V3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3904830838</v>
+        <v>#N/A Requesting Data...3277412410</v>
         <stp/>
         <stp>BDP|18219294914923540841</stp>
         <tr r="C10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4139758325</v>
+        <v>#N/A Requesting Data...4126813611</v>
         <stp/>
         <stp>BDH|16358204116363432607</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3527499925</v>
+        <v>#N/A Requesting Data...1672529707</v>
         <stp/>
         <stp>BDP|13030111079165378191</stp>
         <tr r="F10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3670352959</v>
+        <v>#N/A Requesting Data...3543769312</v>
         <stp/>
         <stp>BDP|17674809694487604003</stp>
         <tr r="B10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3855539821</v>
+        <v>#N/A Requesting Data...2050345100</v>
         <stp/>
         <stp>BDH|18006315047966667809</stp>
         <tr r="J52" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3753901946</v>
+        <v>#N/A Requesting Data...3857577285</v>
         <stp/>
         <stp>BDH|13519407763154348348</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3968892816</v>
+        <v>#N/A Requesting Data...2593571440</v>
         <stp/>
         <stp>BDP|11473368239062878490</stp>
         <tr r="F10" s="12"/>
         <tr r="D10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3623268884</v>
+        <v>#N/A Requesting Data...1340637891</v>
         <stp/>
         <stp>BDP|14572736216992007722</stp>
         <tr r="B10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3484086649</v>
+        <v>#N/A Requesting Data...4061561942</v>
         <stp/>
         <stp>BDH|11586170375595050566</stp>
         <tr r="AF3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3978245978</v>
+        <v>#N/A Requesting Data...4162532928</v>
         <stp/>
         <stp>BDH|14071122187758432247</stp>
         <tr r="V3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3580234370</v>
+        <v>#N/A Requesting Data...3329062742</v>
         <stp/>
         <stp>BDH|16959304837592930337</stp>
         <tr r="M3" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4168515666</v>
+        <v>#N/A Requesting Data...2713208186</v>
         <stp/>
         <stp>BDH|16685983044674202875</stp>
         <tr r="L3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3662691462</v>
+        <v>#N/A Requesting Data...2127055865</v>
         <stp/>
         <stp>BDP|13060443244535072213</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4131496658</v>
-        <stp/>
-        <stp>BDH|18165955710645674103</stp>
-        <tr r="R3" s="10"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3643753778</v>
+        <v>#N/A Requesting Data...2822661608</v>
         <stp/>
         <stp>BDP|17166731865344641740</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3501724236</v>
+        <v>#N/A Requesting Data...3206622863</v>
         <stp/>
         <stp>BDH|14455908018981831836</stp>
+        <tr r="H52" s="12"/>
         <tr r="D52" s="12"/>
-        <tr r="H52" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3707971456</v>
+        <v>#N/A Requesting Data...3036677902</v>
         <stp/>
         <stp>BDH|13214847503986133821</stp>
+        <tr r="X3" s="12"/>
         <tr r="AB3" s="12"/>
-        <tr r="X3" s="12"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3851368907</v>
+        <v>#N/A Requesting Data...1360349863</v>
         <stp/>
         <stp>BDH|4676593065539457302</stp>
         <tr r="Z3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4237296862</v>
+        <v>#N/A Requesting Data...1938778430</v>
         <stp/>
         <stp>BDH|8161464605532362073</stp>
         <tr r="J3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3778296112</v>
+        <v>#N/A Requesting Data...4263347353</v>
         <stp/>
         <stp>BDH|9599461767907930420</stp>
         <tr r="P3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4224800804</v>
+        <v>#N/A Requesting Data...3027147936</v>
         <stp/>
         <stp>BDP|9706553668206945454</stp>
         <tr r="D10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3557567889</v>
+        <v>#N/A Requesting Data...3030760181</v>
         <stp/>
         <stp>BDP|4329662592027264695</stp>
         <tr r="B10" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4152189976</v>
+        <v>#N/A Requesting Data...3167328729</v>
         <stp/>
         <stp>BDH|9143627077581489261</stp>
         <tr r="K3" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3922615993</v>
+        <v>#N/A Requesting Data...2849856339</v>
         <stp/>
         <stp>BDP|3445302272426769594</stp>
         <tr r="B10" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4229363729</v>
+        <v>#N/A Requesting Data...3234833782</v>
         <stp/>
         <stp>BDH|6739355847745220047</stp>
         <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3466228265</v>
+        <v>#N/A Requesting Data...3078432708</v>
         <stp/>
         <stp>BDP|6614610459362681385</stp>
         <tr r="E10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4218639205</v>
+        <v>#N/A Requesting Data...3647554832</v>
         <stp/>
         <stp>BDH|6099216263401782727</stp>
         <tr r="AD3" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005540648</v>
+        <v>#N/A Requesting Data...2858974755</v>
         <stp/>
         <stp>BDH|5214846548095623919</stp>
         <tr r="F52" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4083447567</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8466460615319048165</stp>
+        <tr r="R3" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3852879241</v>
         <stp/>
         <stp>BDH|6346108789318859277</stp>
         <tr r="M2" s="17"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4093564844</v>
+        <v>#N/A Requesting Data...2724037063</v>
         <stp/>
         <stp>BDH|8807839678301592098</stp>
         <tr r="O2" s="17"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3473194450</v>
+        <v>#N/A Requesting Data...2819830982</v>
         <stp/>
         <stp>BDH|1700011739647755235</stp>
         <tr r="I3" s="16"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3524309788</v>
+        <v>#N/A Requesting Data...2575715217</v>
         <stp/>
         <stp>BDP|3122389811593012513</stp>
         <tr r="C10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3887321903</v>
-        <stp/>
-        <stp>BDH|9849621099947893105</stp>
-        <tr r="P3" s="10"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3751498823</v>
+        <v>#N/A Requesting Data...3986587146</v>
         <stp/>
         <stp>BDP|1931107217112743305</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4047568340</v>
+        <v>#N/A Requesting Data...2867210890</v>
         <stp/>
         <stp>BDP|8919074471278682748</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4121736784</v>
+        <v>#N/A Requesting Data...3792491468</v>
         <stp/>
         <stp>BDP|6499873574608943180</stp>
         <tr r="B10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3570677804</v>
+        <v>#N/A Requesting Data...1859886349</v>
         <stp/>
         <stp>BDH|1351815190991177157</stp>
         <tr r="O3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3486493130</v>
+        <v>#N/A Requesting Data...2194968671</v>
         <stp/>
         <stp>BDH|38153282916154285</stp>
         <tr r="AB3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3632111784</v>
+        <v>#N/A Requesting Data...1807574654</v>
         <stp/>
         <stp>BDP|9073119891745028595</stp>
         <tr r="E10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3561696723</v>
+        <v>#N/A Requesting Data...1697666092</v>
         <stp/>
         <stp>BDP|7280882837258491593</stp>
         <tr r="D10" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3795677523</v>
+        <v>#N/A Requesting Data...1732442709</v>
         <stp/>
         <stp>BDH|7195568031640396382</stp>
         <tr r="T3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4116625818</v>
+        <v>#N/A Requesting Data...2060293822</v>
         <stp/>
         <stp>BDH|1572237717612199211</stp>
         <tr r="AD3" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3998107454</v>
+        <v>#N/A Requesting Data...2358734331</v>
         <stp/>
         <stp>BDH|2357700356293066139</stp>
         <tr r="K3" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4163523004</v>
+        <v>#N/A Requesting Data...2292759565</v>
         <stp/>
         <stp>BDP|4720520890802409863</stp>
         <tr r="B10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4104652492</v>
+        <v>#N/A Requesting Data...2813546365</v>
         <stp/>
         <stp>BDH|2283753089298999721</stp>
         <tr r="J3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3812334338</v>
+        <v>#N/A Requesting Data...2643894397</v>
         <stp/>
         <stp>BDH|1218752954106536739</stp>
         <tr r="T3" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114852720</v>
+        <v>#N/A Requesting Data...4246499156</v>
         <stp/>
         <stp>BDP|2192385730727379645</stp>
         <tr r="C10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228916027</v>
+        <v>#N/A Requesting Data...3603460644</v>
         <stp/>
         <stp>BDH|101219700041712696</stp>
         <tr r="L52" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3695572078</v>
+        <v>#N/A Requesting Data...3336875110</v>
         <stp/>
         <stp>BDP|519161733290183679</stp>
         <tr r="B10" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3478257797</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|275258234614310282</stp>
+        <tr r="P3" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3487417076</v>
         <stp/>
         <stp>BDP|332801733094788947</stp>
         <tr r="D10" s="12"/>
         <tr r="B10" s="14"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4235752739</v>
+        <v>#N/A Requesting Data...1361297372</v>
         <stp/>
         <stp>BDP|416056535068485843</stp>
         <tr r="C10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4131989351</v>
+        <v>#N/A Requesting Data...1944392629</v>
         <stp/>
         <stp>BDP|967432059673127000</stp>
         <tr r="G10" s="14"/>
@@ -1834,7 +1834,7 @@
                   <c:v>80764.724291666527</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>91063.174250000302</c:v>
+                  <c:v>95116.447250000172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,7 +2134,7 @@
                   <c:v>108120.11111111121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103258.33333333337</c:v>
+                  <c:v>81778.333333333547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,7 +3511,7 @@
                   <c:v>13455.609722223195</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>2821.0104166667916</c:v>
+                  <c:v>7661.0104166660312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3847,7 @@
                   <c:v>-19758.198723334313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19386.637086667986</c:v>
+                  <c:v>-19173.512086667288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,16 +4474,16 @@
                   <c:v>-101347.75377164128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-150093.10225822285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-80555.786763485754</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-130683.63926416462</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24806.144876662871</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4897,7 +4897,7 @@
                   <c:v>-104687.63975975392</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10144.64428079073</c:v>
+                  <c:v>-23022.528858932172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5260,7 +5260,7 @@
                   <c:v>-57063.625729500709</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17082.089283296111</c:v>
+                  <c:v>-18560.456841472798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11885,16 +11885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11967,16 +11967,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>291735</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>529860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>14695</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>271870</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>62049</xdr:rowOff>
+      <xdr:rowOff>157299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12602,11 +12602,11 @@
       </c>
       <c r="B10" s="20" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"PX_LAST")</f>
-        <v>101.1454</v>
+        <v>101.1386</v>
       </c>
       <c r="C10" s="13" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"PX_LAST")</f>
-        <v>100.746</v>
+        <v>100.693</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="1"/>
@@ -14314,15 +14314,15 @@
       </c>
       <c r="B45" s="4">
         <f ca="1">VLOOKUP(A45,L6:M509,2)</f>
-        <v>101.145</v>
+        <v>101.139</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45" ca="1" si="39">B45-$G$6</f>
-        <v>89.603999999999999</v>
+        <v>89.597999999999999</v>
       </c>
       <c r="D45" s="31">
         <f t="shared" ref="D45" ca="1" si="40">-1*(C45-$C$14)*10^-4*$B$8*$B$5</f>
-        <v>188390.39999999999</v>
+        <v>188457.30000000002</v>
       </c>
       <c r="E45" s="32">
         <f t="shared" ref="E45" si="41">$B$6*(A45-$A$14)/360*$B$5</f>
@@ -14330,11 +14330,11 @@
       </c>
       <c r="F45" s="4">
         <f ca="1">VLOOKUP(A45,N6:O509,2)</f>
-        <v>100.746</v>
+        <v>100.693</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ref="G45" ca="1" si="42">(F45-$F$14)/100*$C$5</f>
-        <v>140324.99999999965</v>
+        <v>136349.99999999983</v>
       </c>
       <c r="H45" s="32">
         <f t="shared" ref="H45" si="43">$C$6*(A45-$A$14)/360*$C$5-$C$7*(A45-$A$14)/360*$C$5*$F$14/100</f>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="I45" s="84">
         <f t="shared" ref="I45" ca="1" si="44">(D45+E45)*$B$9-G45-H45</f>
-        <v>91063.174250000302</v>
+        <v>95116.447250000172</v>
       </c>
       <c r="J45" s="1"/>
       <c r="L45" s="53">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="O105" s="3">
         <f ca="1"/>
-        <v>100.746</v>
+        <v>100.693</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.3">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="M110" s="3">
         <f ca="1"/>
-        <v>101.145</v>
+        <v>101.139</v>
       </c>
       <c r="N110" s="53"/>
     </row>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="B10" s="20" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"PX_LAST")</f>
-        <v>52.459870000000002</v>
+        <v>52.818330000000003</v>
       </c>
       <c r="C10" s="13" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"PX_LAST")</f>
@@ -16173,11 +16173,11 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">VLOOKUP(A18,I:J,2)</f>
-        <v>52.46</v>
+        <v>52.817999999999998</v>
       </c>
       <c r="C18" s="31">
         <f ca="1">-1*(B18-$B$14)*$B$8*$B$5*10^(-4)</f>
-        <v>8400.0000000000346</v>
+        <v>-13079.999999999785</v>
       </c>
       <c r="D18" s="32">
         <f>(A18-$A$14)/360*$B$6*$B$5</f>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="G18" s="84">
         <f ca="1">C18+D18+F18</f>
-        <v>103258.33333333337</v>
+        <v>81778.333333333547</v>
       </c>
       <c r="I18" s="115">
         <f ca="1"/>
@@ -17446,7 +17446,7 @@
       </c>
       <c r="J105" s="3">
         <f ca="1"/>
-        <v>52.46</v>
+        <v>52.817999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="R52" s="3">
         <f ca="1"/>
-        <v>101.7890625</v>
+        <v>101.6953125</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="P104" s="3">
         <f ca="1"/>
-        <v>105.19499999999999</v>
+        <v>105.10599999999999</v>
       </c>
     </row>
     <row r="105" spans="3:16" x14ac:dyDescent="0.3">
@@ -20768,7 +20768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEFA83B-073A-4D88-B763-20B11E093595}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -27529,11 +27529,11 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>94.988</v>
+        <v>94.975999999999999</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>105.821</v>
+        <v>105.751</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -28183,11 +28183,11 @@
       </c>
       <c r="B25" s="46">
         <f ca="1">VLOOKUP(A25,J:K,2)</f>
-        <v>94.988</v>
+        <v>94.975999999999999</v>
       </c>
       <c r="C25" s="31">
         <f t="shared" ref="C25" ca="1" si="25">(B25-$B$14)/100*$B$5</f>
-        <v>20339.999999999916</v>
+        <v>18179.999999999836</v>
       </c>
       <c r="D25" s="32">
         <f t="shared" ref="D25" si="26">(A25-$A$14)/360*$B$6*$B$5-(A25-$A$14)/360*$B$7*$B$5*$B$14/100</f>
@@ -28195,11 +28195,11 @@
       </c>
       <c r="E25" s="4">
         <f ca="1">VLOOKUP(A25,L:M,2)</f>
-        <v>105.821</v>
+        <v>105.751</v>
       </c>
       <c r="F25" s="31">
         <f t="shared" ref="F25" ca="1" si="27">(E25-$E$14)/100*$C$5</f>
-        <v>7099.9999999997954</v>
+        <v>100.00000000047748</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" ref="G25" si="28">(A25-$A$14)/360*$C$6*$C$5-(A25-$A$14)/360*$C$7*$C$5*$E$14/100</f>
@@ -28207,7 +28207,7 @@
       </c>
       <c r="H25" s="84">
         <f t="shared" ref="H25" ca="1" si="29">C25+D25-F25-G25</f>
-        <v>2821.0104166667916</v>
+        <v>7661.0104166660312</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="53">
@@ -29106,7 +29106,7 @@
       </c>
       <c r="M63" s="3">
         <f ca="1"/>
-        <v>105.821</v>
+        <v>105.751</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -29526,7 +29526,7 @@
       </c>
       <c r="K105" s="3">
         <f ca="1"/>
-        <v>94.988</v>
+        <v>94.975999999999999</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.3">
@@ -29994,19 +29994,19 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>101.11</v>
+        <v>101.069</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>101.890625</v>
+        <v>101.8125</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>94.887</v>
+        <v>94.876999999999995</v>
       </c>
       <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>102.078125</v>
+        <v>101.921875</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -31071,11 +31071,11 @@
       </c>
       <c r="B24" s="46">
         <f ca="1">VLOOKUP(A24,P:Q,2)</f>
-        <v>101.11</v>
+        <v>101.069</v>
       </c>
       <c r="C24" s="31">
         <f t="shared" ref="C24" ca="1" si="36">(B24-$B$14)/100*$B$5</f>
-        <v>64399.999999999127</v>
+        <v>58659.999999999563</v>
       </c>
       <c r="D24" s="32">
         <f t="shared" ref="D24" si="37">(A24-$A$14)/360*$B$6*$B$5-(A24-$A$14)/360*$B$7*$B$5*$B$14/100</f>
@@ -31083,11 +31083,11 @@
       </c>
       <c r="E24" s="78">
         <f ca="1">VLOOKUP(A24,R:S,2)</f>
-        <v>101.8828125</v>
+        <v>101.796875</v>
       </c>
       <c r="F24" s="31">
         <f t="shared" ref="F24" ca="1" si="38">(E24-$E$14)/100*$C$5</f>
-        <v>133934.50000000052</v>
+        <v>122247.00000000052</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" ref="G24" si="39">(A24-$A$14)/360*$C$6*$C$5-(A24-$A$14)/360*$C$7*$C$5*$E$14/100</f>
@@ -31095,11 +31095,11 @@
       </c>
       <c r="H24" s="4">
         <f ca="1">VLOOKUP(A24,T:U,2)</f>
-        <v>94.887</v>
+        <v>94.876999999999995</v>
       </c>
       <c r="I24" s="31">
         <f t="shared" ref="I24" ca="1" si="40">(H24-$H$14)/100*$D$5</f>
-        <v>25600.000000000025</v>
+        <v>25099.999999999767</v>
       </c>
       <c r="J24" s="32">
         <f t="shared" ref="J24" si="41">(A24-$A$14)/360*$D$6*$D$5-(A24-$A$14)/360*$D$7*$D$5*$H$14/100</f>
@@ -31107,11 +31107,11 @@
       </c>
       <c r="K24" s="78">
         <f ca="1">VLOOKUP(A24,V:W,2)</f>
-        <v>102.0625</v>
+        <v>101.9140625</v>
       </c>
       <c r="L24" s="31">
         <f t="shared" ref="L24" ca="1" si="42">(K24-$K$14)/100*$E$5</f>
-        <v>74151.000000000116</v>
+        <v>67916.625000000116</v>
       </c>
       <c r="M24" s="32">
         <f t="shared" ref="M24" si="43">(A24-$A$14)/360*$E$6*$E$5-(A24-$A$14)/360*$E$7*$E$5*$K$14/100</f>
@@ -31119,7 +31119,7 @@
       </c>
       <c r="N24" s="84">
         <f t="shared" ref="N24" ca="1" si="44">C24+D24-F24-G24-I24-J24+L24+M24</f>
-        <v>-19386.637086667986</v>
+        <v>-19173.512086667288</v>
       </c>
       <c r="P24" s="77">
         <f ca="1"/>
@@ -31515,7 +31515,7 @@
       </c>
       <c r="Q32" s="55">
         <f ca="1"/>
-        <v>101.11</v>
+        <v>101.069</v>
       </c>
       <c r="R32" s="77">
         <f ca="1"/>
@@ -33613,7 +33613,7 @@
       </c>
       <c r="U105" s="55">
         <f ca="1"/>
-        <v>94.887</v>
+        <v>94.876999999999995</v>
       </c>
       <c r="V105" s="77">
         <f ca="1"/>
@@ -33687,7 +33687,7 @@
       </c>
       <c r="S109" s="55">
         <f ca="1"/>
-        <v>101.8828125</v>
+        <v>101.796875</v>
       </c>
       <c r="V109" s="77">
         <f ca="1"/>
@@ -33695,7 +33695,7 @@
       </c>
       <c r="W109" s="55">
         <f ca="1"/>
-        <v>102.0625</v>
+        <v>101.9140625</v>
       </c>
     </row>
     <row r="110" spans="18:23" x14ac:dyDescent="0.3">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>45.211790000000001</v>
+        <v>45.211539999999999</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -35616,8 +35616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201AFA43-48F1-405E-9185-E3F7C0AEBF7A}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35633,14 +35633,14 @@
     <col min="13" max="13" width="13.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="55" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.109375"/>
-    <col min="16" max="16" width="10.5546875" style="77" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="55" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="77" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" style="55" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" style="77" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0" style="55" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" style="77" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="55" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="77" customWidth="1"/>
+    <col min="17" max="17" width="6" style="55" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="55" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="77" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="55" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="55" customWidth="1"/>
     <col min="24" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
@@ -35728,22 +35728,16 @@
       <c r="K3" s="54"/>
       <c r="L3" s="1"/>
       <c r="M3" s="54"/>
-      <c r="P3" s="53" cm="1">
-        <f t="array" aca="1" ref="P3:Q39" ca="1">_xll.BDH($B$4, "PX_LAST, ", $P$1, "")</f>
-        <v>45895</v>
-      </c>
-      <c r="Q3" s="1">
-        <f ca="1"/>
-        <v>94.58</v>
-      </c>
-      <c r="R3" s="53" cm="1">
-        <f t="array" aca="1" ref="R3:S39" ca="1">_xll.BDH($C$4, "PX_LAST, ", P$1, "")</f>
-        <v>45895</v>
-      </c>
-      <c r="S3" s="47">
-        <f ca="1"/>
-        <v>101.06699999999999</v>
-      </c>
+      <c r="P3" s="53" t="str" cm="1">
+        <f t="array" ref="P3">_xll.BDH(B4, "LAST_PRICE", "01/01/2025 15:59:00", "01/01/2035 16:00:00", "BarSize=1", "BarType=T", "RecurDaily=True", "TZ=New_York")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="53" t="str" cm="1">
+        <f t="array" ref="R3">_xll.BDH(C4, "LAST_PRICE", "01/01/2025 15:59:00", "01/01/2035 16:00:00", "BarSize=1", "BarType=T", "RecurDaily=True", "TZ=New_York")</f>
+        <v>#N/A N/A</v>
+      </c>
+      <c r="S3" s="47"/>
       <c r="T3" s="53" cm="1">
         <f t="array" aca="1" ref="T3:U39" ca="1">_xll.BDH($D$4, "PX_LAST, ", P$1, "")</f>
         <v>45895</v>
@@ -35784,22 +35778,6 @@
       <c r="K4" s="54"/>
       <c r="L4" s="1"/>
       <c r="M4" s="54"/>
-      <c r="P4" s="77">
-        <f ca="1"/>
-        <v>45896</v>
-      </c>
-      <c r="Q4" s="55">
-        <f ca="1"/>
-        <v>94.55</v>
-      </c>
-      <c r="R4" s="77">
-        <f ca="1"/>
-        <v>45896</v>
-      </c>
-      <c r="S4" s="55">
-        <f ca="1"/>
-        <v>101.145</v>
-      </c>
       <c r="T4" s="77">
         <f ca="1"/>
         <v>45896</v>
@@ -35844,22 +35822,6 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="P5" s="77">
-        <f ca="1"/>
-        <v>45897</v>
-      </c>
-      <c r="Q5" s="55">
-        <f ca="1"/>
-        <v>94.52</v>
-      </c>
-      <c r="R5" s="77">
-        <f ca="1"/>
-        <v>45897</v>
-      </c>
-      <c r="S5" s="55">
-        <f ca="1"/>
-        <v>101.104</v>
-      </c>
       <c r="T5" s="77">
         <f ca="1"/>
         <v>45897</v>
@@ -35900,22 +35862,6 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="P6" s="77">
-        <f ca="1"/>
-        <v>45898</v>
-      </c>
-      <c r="Q6" s="55">
-        <f ca="1"/>
-        <v>94.41</v>
-      </c>
-      <c r="R6" s="77">
-        <f ca="1"/>
-        <v>45898</v>
-      </c>
-      <c r="S6" s="55">
-        <f ca="1"/>
-        <v>101.065</v>
-      </c>
       <c r="T6" s="77">
         <f ca="1"/>
         <v>45898</v>
@@ -35957,22 +35903,6 @@
       <c r="L7" s="1"/>
       <c r="M7" s="54"/>
       <c r="N7" s="1"/>
-      <c r="P7" s="77">
-        <f ca="1"/>
-        <v>45901</v>
-      </c>
-      <c r="Q7" s="55">
-        <f ca="1"/>
-        <v>94.44</v>
-      </c>
-      <c r="R7" s="77">
-        <f ca="1"/>
-        <v>45901</v>
-      </c>
-      <c r="S7" s="55">
-        <f ca="1"/>
-        <v>101.017</v>
-      </c>
       <c r="T7" s="77">
         <f ca="1"/>
         <v>45901</v>
@@ -36014,22 +35944,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="P8" s="77">
-        <f ca="1"/>
-        <v>45902</v>
-      </c>
-      <c r="Q8" s="55">
-        <f ca="1"/>
-        <v>94.21</v>
-      </c>
-      <c r="R8" s="77">
-        <f ca="1"/>
-        <v>45902</v>
-      </c>
-      <c r="S8" s="55">
-        <f ca="1"/>
-        <v>100.965</v>
-      </c>
       <c r="T8" s="77">
         <f ca="1"/>
         <v>45902</v>
@@ -36069,22 +35983,6 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="P9" s="77">
-        <f ca="1"/>
-        <v>45903</v>
-      </c>
-      <c r="Q9" s="55">
-        <f ca="1"/>
-        <v>94.34</v>
-      </c>
-      <c r="R9" s="77">
-        <f ca="1"/>
-        <v>45903</v>
-      </c>
-      <c r="S9" s="55">
-        <f ca="1"/>
-        <v>101.041</v>
-      </c>
       <c r="T9" s="77">
         <f ca="1"/>
         <v>45903</v>
@@ -36131,22 +36029,6 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="P10" s="77">
-        <f ca="1"/>
-        <v>45904</v>
-      </c>
-      <c r="Q10" s="55">
-        <f ca="1"/>
-        <v>94.51</v>
-      </c>
-      <c r="R10" s="77">
-        <f ca="1"/>
-        <v>45904</v>
-      </c>
-      <c r="S10" s="55">
-        <f ca="1"/>
-        <v>101.063</v>
-      </c>
       <c r="T10" s="77">
         <f ca="1"/>
         <v>45904</v>
@@ -36177,22 +36059,6 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="P11" s="77">
-        <f ca="1"/>
-        <v>45905</v>
-      </c>
-      <c r="Q11" s="55">
-        <f ca="1"/>
-        <v>94.63</v>
-      </c>
-      <c r="R11" s="77">
-        <f ca="1"/>
-        <v>45905</v>
-      </c>
-      <c r="S11" s="55">
-        <f ca="1"/>
-        <v>101.19199999999999</v>
-      </c>
       <c r="T11" s="77">
         <f ca="1"/>
         <v>45905</v>
@@ -36237,22 +36103,6 @@
       <c r="N12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="77">
-        <f ca="1"/>
-        <v>45908</v>
-      </c>
-      <c r="Q12" s="55">
-        <f ca="1"/>
-        <v>94.66</v>
-      </c>
-      <c r="R12" s="77">
-        <f ca="1"/>
-        <v>45908</v>
-      </c>
-      <c r="S12" s="55">
-        <f ca="1"/>
-        <v>101.22199999999999</v>
-      </c>
       <c r="T12" s="77">
         <f ca="1"/>
         <v>45908</v>
@@ -36309,22 +36159,6 @@
         <v>20</v>
       </c>
       <c r="N13" s="101"/>
-      <c r="P13" s="77">
-        <f ca="1"/>
-        <v>45909</v>
-      </c>
-      <c r="Q13" s="55">
-        <f ca="1"/>
-        <v>94.57</v>
-      </c>
-      <c r="R13" s="77">
-        <f ca="1"/>
-        <v>45909</v>
-      </c>
-      <c r="S13" s="55">
-        <f ca="1"/>
-        <v>101.158</v>
-      </c>
       <c r="T13" s="77">
         <f ca="1"/>
         <v>45909</v>
@@ -36369,22 +36203,6 @@
       <c r="N14" s="84">
         <v>0</v>
       </c>
-      <c r="P14" s="77">
-        <f ca="1"/>
-        <v>45910</v>
-      </c>
-      <c r="Q14" s="55">
-        <f ca="1"/>
-        <v>94.46</v>
-      </c>
-      <c r="R14" s="77">
-        <f ca="1"/>
-        <v>45910</v>
-      </c>
-      <c r="S14" s="55">
-        <f ca="1"/>
-        <v>101.128</v>
-      </c>
       <c r="T14" s="77">
         <f ca="1"/>
         <v>45910</v>
@@ -36454,22 +36272,6 @@
         <f t="shared" ref="N15:N20" si="8">C15+D15-F15-G15-I15-J15+L15+M15</f>
         <v>-71160.386397814393</v>
       </c>
-      <c r="P15" s="77">
-        <f ca="1"/>
-        <v>45911</v>
-      </c>
-      <c r="Q15" s="55">
-        <f ca="1"/>
-        <v>92.28</v>
-      </c>
-      <c r="R15" s="77">
-        <f ca="1"/>
-        <v>45911</v>
-      </c>
-      <c r="S15" s="55">
-        <f ca="1"/>
-        <v>101.033</v>
-      </c>
       <c r="T15" s="77">
         <f ca="1"/>
         <v>45911</v>
@@ -36539,22 +36341,6 @@
         <f t="shared" si="8"/>
         <v>-101347.75377164128</v>
       </c>
-      <c r="P16" s="77">
-        <f ca="1"/>
-        <v>45912</v>
-      </c>
-      <c r="Q16" s="55">
-        <f ca="1"/>
-        <v>92.39</v>
-      </c>
-      <c r="R16" s="77">
-        <f ca="1"/>
-        <v>45912</v>
-      </c>
-      <c r="S16" s="55">
-        <f ca="1"/>
-        <v>100.916</v>
-      </c>
       <c r="T16" s="77">
         <f ca="1"/>
         <v>45912</v>
@@ -36576,25 +36362,25 @@
       <c r="A17" s="37">
         <v>45940</v>
       </c>
-      <c r="B17" s="78">
-        <f ca="1">VLOOKUP($A17,P$3:Q$500,2)</f>
-        <v>91.6</v>
-      </c>
-      <c r="C17" s="31">
-        <f t="shared" ca="1" si="0"/>
-        <v>-208400.99599437334</v>
+      <c r="B17" s="78" t="e">
+        <f>VLOOKUP($A17,P$3:Q$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="D17" s="32">
         <f t="shared" si="1"/>
         <v>-8812.4999999999982</v>
       </c>
-      <c r="E17" s="78">
-        <f ca="1">VLOOKUP($A17,R$3:S$500,2)</f>
-        <v>101.06399999999999</v>
-      </c>
-      <c r="F17" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>32799.999999997453</v>
+      <c r="E17" s="78" t="e">
+        <f>VLOOKUP($A17,R$3:S$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="G17" s="32">
         <f t="shared" si="3"/>
@@ -36624,25 +36410,9 @@
         <f t="shared" si="7"/>
         <v>-6860.6803333333337</v>
       </c>
-      <c r="N17" s="84">
+      <c r="N17" s="84" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>-150093.10225822285</v>
-      </c>
-      <c r="P17" s="77">
-        <f ca="1"/>
-        <v>45915</v>
-      </c>
-      <c r="Q17" s="55">
-        <f ca="1"/>
-        <v>92.42</v>
-      </c>
-      <c r="R17" s="77">
-        <f ca="1"/>
-        <v>45915</v>
-      </c>
-      <c r="S17" s="55">
-        <f ca="1"/>
-        <v>100.931</v>
+        <v>#N/A</v>
       </c>
       <c r="T17" s="77">
         <f ca="1"/>
@@ -36665,25 +36435,25 @@
       <c r="A18" s="37">
         <v>45943</v>
       </c>
-      <c r="B18" s="78">
-        <f ca="1">VLOOKUP($A18,P$3:Q$500,2)</f>
-        <v>91.84</v>
-      </c>
-      <c r="C18" s="31">
-        <f t="shared" ca="1" si="0"/>
-        <v>-143444.84139872383</v>
+      <c r="B18" s="78" t="e">
+        <f>VLOOKUP($A18,P$3:Q$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="D18" s="32">
         <f t="shared" si="1"/>
         <v>-17624.999999999996</v>
       </c>
-      <c r="E18" s="78">
-        <f ca="1">VLOOKUP($A18,R$3:S$500,2)</f>
-        <v>101.11</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>41999.999999998749</v>
+      <c r="E18" s="78" t="e">
+        <f>VLOOKUP($A18,R$3:S$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="32">
         <f t="shared" si="3"/>
@@ -36713,25 +36483,9 @@
         <f t="shared" si="7"/>
         <v>-13721.360666666667</v>
       </c>
-      <c r="N18" s="84">
+      <c r="N18" s="84" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>-80555.786763485754</v>
-      </c>
-      <c r="P18" s="77">
-        <f ca="1"/>
-        <v>45916</v>
-      </c>
-      <c r="Q18" s="55">
-        <f ca="1"/>
-        <v>92.35</v>
-      </c>
-      <c r="R18" s="77">
-        <f ca="1"/>
-        <v>45916</v>
-      </c>
-      <c r="S18" s="55">
-        <f ca="1"/>
-        <v>100.971</v>
+        <v>#N/A</v>
       </c>
       <c r="T18" s="77">
         <f ca="1"/>
@@ -36754,25 +36508,25 @@
       <c r="A19" s="37">
         <v>45944</v>
       </c>
-      <c r="B19" s="78">
-        <f ca="1">VLOOKUP($A19,P$3:Q$500,2)</f>
-        <v>91.88</v>
-      </c>
-      <c r="C19" s="31">
-        <f t="shared" ca="1" si="0"/>
-        <v>-132618.81563278454</v>
+      <c r="B19" s="78" t="e">
+        <f>VLOOKUP($A19,P$3:Q$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="D19" s="32">
         <f t="shared" si="1"/>
         <v>-20562.5</v>
       </c>
-      <c r="E19" s="78">
-        <f ca="1">VLOOKUP($A19,R$3:S$500,2)</f>
-        <v>101.14400000000001</v>
-      </c>
-      <c r="F19" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>48799.999999999956</v>
+      <c r="E19" s="78" t="e">
+        <f>VLOOKUP($A19,R$3:S$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="32">
         <f t="shared" si="3"/>
@@ -36802,25 +36556,9 @@
         <f t="shared" si="7"/>
         <v>-16008.254111111117</v>
       </c>
-      <c r="N19" s="84">
+      <c r="N19" s="84" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>-130683.63926416462</v>
-      </c>
-      <c r="P19" s="77">
-        <f ca="1"/>
-        <v>45917</v>
-      </c>
-      <c r="Q19" s="55">
-        <f ca="1"/>
-        <v>92.4</v>
-      </c>
-      <c r="R19" s="77">
-        <f ca="1"/>
-        <v>45917</v>
-      </c>
-      <c r="S19" s="55">
-        <f ca="1"/>
-        <v>100.982</v>
+        <v>#N/A</v>
       </c>
       <c r="T19" s="77">
         <f ca="1"/>
@@ -36843,25 +36581,25 @@
       <c r="A20" s="37">
         <v>45945</v>
       </c>
-      <c r="B20" s="78">
-        <f ca="1">VLOOKUP($A20,P$3:Q$500,2)</f>
-        <v>92.42</v>
-      </c>
-      <c r="C20" s="31">
-        <f t="shared" ca="1" si="0"/>
-        <v>13532.532207427561</v>
+      <c r="B20" s="78" t="e">
+        <f>VLOOKUP($A20,P$3:Q$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="D20" s="32">
         <f t="shared" si="1"/>
         <v>-23500</v>
       </c>
-      <c r="E20" s="78">
-        <f ca="1">VLOOKUP($A20,R$3:S$500,2)</f>
-        <v>101.21599999999999</v>
-      </c>
-      <c r="F20" s="31">
-        <f t="shared" ca="1" si="2"/>
-        <v>63199.999999997657</v>
+      <c r="E20" s="78" t="e">
+        <f>VLOOKUP($A20,R$3:S$500,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="32">
         <f t="shared" si="3"/>
@@ -36891,25 +36629,9 @@
         <f t="shared" si="7"/>
         <v>-18295.147555555563</v>
       </c>
-      <c r="N20" s="84">
+      <c r="N20" s="84" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>-24806.144876662871</v>
-      </c>
-      <c r="P20" s="77">
-        <f ca="1"/>
-        <v>45918</v>
-      </c>
-      <c r="Q20" s="55">
-        <f ca="1"/>
-        <v>92.61</v>
-      </c>
-      <c r="R20" s="77">
-        <f ca="1"/>
-        <v>45918</v>
-      </c>
-      <c r="S20" s="55">
-        <f ca="1"/>
-        <v>100.943</v>
+        <v>#N/A</v>
       </c>
       <c r="T20" s="77">
         <f ca="1"/>
@@ -36945,22 +36667,6 @@
       <c r="L21" s="31"/>
       <c r="M21" s="32"/>
       <c r="N21" s="84"/>
-      <c r="P21" s="77">
-        <f ca="1"/>
-        <v>45919</v>
-      </c>
-      <c r="Q21" s="55">
-        <f ca="1"/>
-        <v>92.68</v>
-      </c>
-      <c r="R21" s="77">
-        <f ca="1"/>
-        <v>45919</v>
-      </c>
-      <c r="S21" s="55">
-        <f ca="1"/>
-        <v>100.896</v>
-      </c>
       <c r="T21" s="77">
         <f ca="1"/>
         <v>45919</v>
@@ -36995,22 +36701,6 @@
       <c r="L22" s="31"/>
       <c r="M22" s="32"/>
       <c r="N22" s="84"/>
-      <c r="P22" s="77">
-        <f ca="1"/>
-        <v>45922</v>
-      </c>
-      <c r="Q22" s="55">
-        <f ca="1"/>
-        <v>92.5</v>
-      </c>
-      <c r="R22" s="77">
-        <f ca="1"/>
-        <v>45922</v>
-      </c>
-      <c r="S22" s="55">
-        <f ca="1"/>
-        <v>100.90900000000001</v>
-      </c>
       <c r="T22" s="77">
         <f ca="1"/>
         <v>45922</v>
@@ -37043,22 +36733,6 @@
       <c r="L23" s="31"/>
       <c r="M23" s="32"/>
       <c r="N23" s="84"/>
-      <c r="P23" s="77">
-        <f ca="1"/>
-        <v>45923</v>
-      </c>
-      <c r="Q23" s="55">
-        <f ca="1"/>
-        <v>92.62</v>
-      </c>
-      <c r="R23" s="77">
-        <f ca="1"/>
-        <v>45923</v>
-      </c>
-      <c r="S23" s="55">
-        <f ca="1"/>
-        <v>100.88800000000001</v>
-      </c>
       <c r="T23" s="77">
         <f ca="1"/>
         <v>45923</v>
@@ -37091,22 +36765,6 @@
       <c r="L24" s="31"/>
       <c r="M24" s="32"/>
       <c r="N24" s="84"/>
-      <c r="P24" s="77">
-        <f ca="1"/>
-        <v>45924</v>
-      </c>
-      <c r="Q24" s="55">
-        <f ca="1"/>
-        <v>92.58</v>
-      </c>
-      <c r="R24" s="77">
-        <f ca="1"/>
-        <v>45924</v>
-      </c>
-      <c r="S24" s="55">
-        <f ca="1"/>
-        <v>100.88800000000001</v>
-      </c>
       <c r="T24" s="77">
         <f ca="1"/>
         <v>45924</v>
@@ -37139,22 +36797,6 @@
       <c r="L25" s="31"/>
       <c r="M25" s="32"/>
       <c r="N25" s="84"/>
-      <c r="P25" s="77">
-        <f ca="1"/>
-        <v>45925</v>
-      </c>
-      <c r="Q25" s="55">
-        <f ca="1"/>
-        <v>92.36</v>
-      </c>
-      <c r="R25" s="77">
-        <f ca="1"/>
-        <v>45925</v>
-      </c>
-      <c r="S25" s="55">
-        <f ca="1"/>
-        <v>100.815</v>
-      </c>
       <c r="T25" s="77">
         <f ca="1"/>
         <v>45925</v>
@@ -37187,22 +36829,6 @@
       <c r="L26" s="31"/>
       <c r="M26" s="32"/>
       <c r="N26" s="84"/>
-      <c r="P26" s="77">
-        <f ca="1"/>
-        <v>45926</v>
-      </c>
-      <c r="Q26" s="55">
-        <f ca="1"/>
-        <v>92.5</v>
-      </c>
-      <c r="R26" s="77">
-        <f ca="1"/>
-        <v>45926</v>
-      </c>
-      <c r="S26" s="55">
-        <f ca="1"/>
-        <v>100.863</v>
-      </c>
       <c r="T26" s="77">
         <f ca="1"/>
         <v>45926</v>
@@ -37235,22 +36861,6 @@
       <c r="L27" s="31"/>
       <c r="M27" s="32"/>
       <c r="N27" s="84"/>
-      <c r="P27" s="77">
-        <f ca="1"/>
-        <v>45929</v>
-      </c>
-      <c r="Q27" s="55">
-        <f ca="1"/>
-        <v>92.56</v>
-      </c>
-      <c r="R27" s="77">
-        <f ca="1"/>
-        <v>45929</v>
-      </c>
-      <c r="S27" s="55">
-        <f ca="1"/>
-        <v>100.89100000000001</v>
-      </c>
       <c r="T27" s="77">
         <f ca="1"/>
         <v>45929</v>
@@ -37283,22 +36893,6 @@
       <c r="L28" s="31"/>
       <c r="M28" s="32"/>
       <c r="N28" s="84"/>
-      <c r="P28" s="77">
-        <f ca="1"/>
-        <v>45930</v>
-      </c>
-      <c r="Q28" s="55">
-        <f ca="1"/>
-        <v>92.44</v>
-      </c>
-      <c r="R28" s="77">
-        <f ca="1"/>
-        <v>45930</v>
-      </c>
-      <c r="S28" s="55">
-        <f ca="1"/>
-        <v>100.898</v>
-      </c>
       <c r="T28" s="77">
         <f ca="1"/>
         <v>45930</v>
@@ -37331,22 +36925,6 @@
       <c r="L29" s="31"/>
       <c r="M29" s="32"/>
       <c r="N29" s="84"/>
-      <c r="P29" s="77">
-        <f ca="1"/>
-        <v>45931</v>
-      </c>
-      <c r="Q29" s="55">
-        <f ca="1"/>
-        <v>92.51</v>
-      </c>
-      <c r="R29" s="77">
-        <f ca="1"/>
-        <v>45931</v>
-      </c>
-      <c r="S29" s="55">
-        <f ca="1"/>
-        <v>100.917</v>
-      </c>
       <c r="T29" s="77">
         <f ca="1"/>
         <v>45931</v>
@@ -37379,22 +36957,6 @@
       <c r="L30" s="31"/>
       <c r="M30" s="32"/>
       <c r="N30" s="84"/>
-      <c r="P30" s="77">
-        <f ca="1"/>
-        <v>45932</v>
-      </c>
-      <c r="Q30" s="55">
-        <f ca="1"/>
-        <v>92.7</v>
-      </c>
-      <c r="R30" s="77">
-        <f ca="1"/>
-        <v>45932</v>
-      </c>
-      <c r="S30" s="55">
-        <f ca="1"/>
-        <v>100.92400000000001</v>
-      </c>
       <c r="T30" s="77">
         <f ca="1"/>
         <v>45932</v>
@@ -37427,22 +36989,6 @@
       <c r="L31" s="31"/>
       <c r="M31" s="32"/>
       <c r="N31" s="39"/>
-      <c r="P31" s="77">
-        <f ca="1"/>
-        <v>45933</v>
-      </c>
-      <c r="Q31" s="55">
-        <f ca="1"/>
-        <v>92.57</v>
-      </c>
-      <c r="R31" s="77">
-        <f ca="1"/>
-        <v>45933</v>
-      </c>
-      <c r="S31" s="55">
-        <f ca="1"/>
-        <v>100.9</v>
-      </c>
       <c r="T31" s="77">
         <f ca="1"/>
         <v>45933</v>
@@ -37475,22 +37021,6 @@
       <c r="L32" s="31"/>
       <c r="M32" s="32"/>
       <c r="N32" s="39"/>
-      <c r="P32" s="77">
-        <f ca="1"/>
-        <v>45936</v>
-      </c>
-      <c r="Q32" s="55">
-        <f ca="1"/>
-        <v>92.53</v>
-      </c>
-      <c r="R32" s="77">
-        <f ca="1"/>
-        <v>45936</v>
-      </c>
-      <c r="S32" s="55">
-        <f ca="1"/>
-        <v>100.917</v>
-      </c>
       <c r="T32" s="77">
         <f ca="1"/>
         <v>45936</v>
@@ -37523,22 +37053,6 @@
       <c r="L33" s="31"/>
       <c r="M33" s="32"/>
       <c r="N33" s="39"/>
-      <c r="P33" s="77">
-        <f ca="1"/>
-        <v>45937</v>
-      </c>
-      <c r="Q33" s="55">
-        <f ca="1"/>
-        <v>92.26</v>
-      </c>
-      <c r="R33" s="77">
-        <f ca="1"/>
-        <v>45937</v>
-      </c>
-      <c r="S33" s="55">
-        <f ca="1"/>
-        <v>100.93</v>
-      </c>
       <c r="T33" s="77">
         <f ca="1"/>
         <v>45937</v>
@@ -37571,22 +37085,6 @@
       <c r="L34" s="31"/>
       <c r="M34" s="32"/>
       <c r="N34" s="39"/>
-      <c r="P34" s="77">
-        <f ca="1"/>
-        <v>45938</v>
-      </c>
-      <c r="Q34" s="55">
-        <f ca="1"/>
-        <v>92.15</v>
-      </c>
-      <c r="R34" s="77">
-        <f ca="1"/>
-        <v>45938</v>
-      </c>
-      <c r="S34" s="55">
-        <f ca="1"/>
-        <v>100.986</v>
-      </c>
       <c r="T34" s="77">
         <f ca="1"/>
         <v>45938</v>
@@ -37619,22 +37117,6 @@
       <c r="L35" s="31"/>
       <c r="M35" s="32"/>
       <c r="N35" s="39"/>
-      <c r="P35" s="77">
-        <f ca="1"/>
-        <v>45939</v>
-      </c>
-      <c r="Q35" s="55">
-        <f ca="1"/>
-        <v>91.93</v>
-      </c>
-      <c r="R35" s="77">
-        <f ca="1"/>
-        <v>45939</v>
-      </c>
-      <c r="S35" s="55">
-        <f ca="1"/>
-        <v>100.932</v>
-      </c>
       <c r="T35" s="77">
         <f ca="1"/>
         <v>45939</v>
@@ -37667,22 +37149,6 @@
       <c r="L36" s="31"/>
       <c r="M36" s="32"/>
       <c r="N36" s="39"/>
-      <c r="P36" s="77">
-        <f ca="1"/>
-        <v>45940</v>
-      </c>
-      <c r="Q36" s="55">
-        <f ca="1"/>
-        <v>91.6</v>
-      </c>
-      <c r="R36" s="77">
-        <f ca="1"/>
-        <v>45940</v>
-      </c>
-      <c r="S36" s="55">
-        <f ca="1"/>
-        <v>101.06399999999999</v>
-      </c>
       <c r="T36" s="77">
         <f ca="1"/>
         <v>45940</v>
@@ -37715,22 +37181,6 @@
       <c r="L37" s="31"/>
       <c r="M37" s="32"/>
       <c r="N37" s="39"/>
-      <c r="P37" s="77">
-        <f ca="1"/>
-        <v>45943</v>
-      </c>
-      <c r="Q37" s="55">
-        <f ca="1"/>
-        <v>91.84</v>
-      </c>
-      <c r="R37" s="77">
-        <f ca="1"/>
-        <v>45943</v>
-      </c>
-      <c r="S37" s="55">
-        <f ca="1"/>
-        <v>101.11</v>
-      </c>
       <c r="T37" s="77">
         <f ca="1"/>
         <v>45943</v>
@@ -37763,22 +37213,6 @@
       <c r="L38" s="31"/>
       <c r="M38" s="32"/>
       <c r="N38" s="39"/>
-      <c r="P38" s="77">
-        <f ca="1"/>
-        <v>45944</v>
-      </c>
-      <c r="Q38" s="55">
-        <f ca="1"/>
-        <v>91.88</v>
-      </c>
-      <c r="R38" s="77">
-        <f ca="1"/>
-        <v>45944</v>
-      </c>
-      <c r="S38" s="55">
-        <f ca="1"/>
-        <v>101.14400000000001</v>
-      </c>
       <c r="T38" s="77">
         <f ca="1"/>
         <v>45944</v>
@@ -37811,22 +37245,6 @@
       <c r="L39" s="31"/>
       <c r="M39" s="32"/>
       <c r="N39" s="39"/>
-      <c r="P39" s="77">
-        <f ca="1"/>
-        <v>45945</v>
-      </c>
-      <c r="Q39" s="55">
-        <f ca="1"/>
-        <v>92.42</v>
-      </c>
-      <c r="R39" s="77">
-        <f ca="1"/>
-        <v>45945</v>
-      </c>
-      <c r="S39" s="55">
-        <f ca="1"/>
-        <v>101.21599999999999</v>
-      </c>
       <c r="T39" s="77">
         <f ca="1"/>
         <v>45945</v>
@@ -38640,27 +38058,27 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>80.765000000000001</v>
+        <v>80.67</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>100.0234375</v>
+        <v>99.9921875</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.0234375</v>
+        <v>99.9921875</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
-        <v>101.796875</v>
+        <v>101.703125</v>
       </c>
       <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xll.BDP(G4,"px_last")</f>
-        <v>102.109375</v>
+        <v>101.953125</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="54"/>
@@ -41681,11 +41099,11 @@
       </c>
       <c r="B36" s="46">
         <f ca="1">VLOOKUP($A36,V$3:W$104,2)</f>
-        <v>80.765000000000001</v>
+        <v>80.67</v>
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36" ca="1" si="66">(B36/$B$14-1)*$B$5</f>
-        <v>-172488.14144027737</v>
+        <v>-213454.07503234493</v>
       </c>
       <c r="D36" s="47">
         <f t="shared" ref="D36" si="67">-1*(A36-$A$14)/360*$B$7*$B$5</f>
@@ -41693,11 +41111,11 @@
       </c>
       <c r="E36" s="46">
         <f ca="1">VLOOKUP($A36,X$3:Y$104,2)</f>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="F36" s="47">
         <f t="shared" ref="F36" ca="1" si="68">(E36-$E$14)/100*$C$5</f>
-        <v>-19804.6875</v>
+        <v>-25898.437500000004</v>
       </c>
       <c r="G36" s="48">
         <f t="shared" ref="G36" si="69">(A36-$A$14)/360*$C$6*$C$5-(A36-$A$14)/360*$C$7*$C$5*$E$14/100</f>
@@ -41705,11 +41123,11 @@
       </c>
       <c r="H36" s="46">
         <f ca="1">VLOOKUP($A36,Z$3:AA$104,2)</f>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
       <c r="I36" s="47">
         <f t="shared" ref="I36" ca="1" si="70">(H36/$H$14-1)*$D$5</f>
-        <v>-89667.748965884806</v>
+        <v>-120122.75941822947</v>
       </c>
       <c r="J36" s="48">
         <f t="shared" ref="J36" si="71">-1*(A36-$A$14)/360*$D$7*$D$5</f>
@@ -41717,11 +41135,11 @@
       </c>
       <c r="K36" s="46">
         <f ca="1">VLOOKUP($A36,AB$3:AC$104,2)</f>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="L36" s="47">
         <f t="shared" ref="L36" ca="1" si="72">(K36-$K$14)/100*$E$5</f>
-        <v>-17265.625</v>
+        <v>-22578.125</v>
       </c>
       <c r="M36" s="48">
         <f t="shared" ref="M36" si="73">(A36-$A$14)/360*$E$6*$E$5-(A36-$A$14)/360*$E$7*$E$5*$N$14/100</f>
@@ -41729,11 +41147,11 @@
       </c>
       <c r="N36" s="46">
         <f ca="1">VLOOKUP($A36,AD$3:AE$104,2)</f>
-        <v>101.7890625</v>
+        <v>101.6953125</v>
       </c>
       <c r="O36" s="47">
         <f t="shared" ref="O36" ca="1" si="74">(N36-$N$14)/100*$F$5</f>
-        <v>1171.875</v>
+        <v>-5859.375</v>
       </c>
       <c r="P36" s="48">
         <f t="shared" ref="P36" si="75">(A36-$A$14)/360*$F$6*$F$5-(A36-$A$14)/360*$F$7*$F$5*$N$14/100</f>
@@ -41741,11 +41159,11 @@
       </c>
       <c r="Q36" s="46">
         <f ca="1">VLOOKUP($A36,AF$3:AG$104,2)</f>
-        <v>102.1015625</v>
+        <v>101.9453125</v>
       </c>
       <c r="R36" s="47">
         <f t="shared" ref="R36" ca="1" si="76">(Q36-$Q$14)/100*$G$5</f>
-        <v>47578.125</v>
+        <v>31171.875</v>
       </c>
       <c r="S36" s="48">
         <f t="shared" ref="S36" si="77">(A36-$A$14)/360*$G$6*$G$5-(A36-$A$14)/360*$G$7*$G$5*$Q$14/100</f>
@@ -41753,7 +41171,7 @@
       </c>
       <c r="T36" s="84">
         <f t="shared" ref="T36" ca="1" si="78">C36+D36-F36-G36-I36-J36+L36+M36+O36+P36+R36+S36+$R$8</f>
-        <v>10144.64428079073</v>
+        <v>-23022.528858932172</v>
       </c>
       <c r="V36" s="77">
         <f ca="1"/>
@@ -41913,7 +41331,7 @@
       </c>
       <c r="Y38" s="55">
         <f ca="1"/>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="Z38" s="77">
         <f ca="1"/>
@@ -41929,7 +41347,7 @@
       </c>
       <c r="AC38" s="55">
         <f ca="1"/>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="AD38" s="77">
         <f ca="1"/>
@@ -42731,7 +42149,7 @@
       </c>
       <c r="AG52" s="55">
         <f ca="1"/>
-        <v>102.1015625</v>
+        <v>101.9453125</v>
       </c>
     </row>
     <row r="53" spans="2:33" x14ac:dyDescent="0.3">
@@ -42805,7 +42223,7 @@
       </c>
       <c r="AE53" s="55">
         <f ca="1"/>
-        <v>101.7890625</v>
+        <v>101.6953125</v>
       </c>
     </row>
     <row r="54" spans="2:33" x14ac:dyDescent="0.3">
@@ -43739,7 +43157,7 @@
       </c>
       <c r="C68" s="55">
         <f ca="1"/>
-        <v>80.765000000000001</v>
+        <v>80.67</v>
       </c>
       <c r="D68" s="77">
         <f ca="1"/>
@@ -43747,7 +43165,7 @@
       </c>
       <c r="E68" s="55">
         <f ca="1"/>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="F68" s="77">
         <f ca="1"/>
@@ -43755,7 +43173,7 @@
       </c>
       <c r="G68" s="55">
         <f ca="1"/>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
       <c r="H68" s="77">
         <f ca="1"/>
@@ -43763,7 +43181,7 @@
       </c>
       <c r="I68" s="55">
         <f ca="1"/>
-        <v>100.015625</v>
+        <v>99.984375</v>
       </c>
       <c r="J68" s="77">
         <f ca="1"/>
@@ -43771,7 +43189,7 @@
       </c>
       <c r="K68" s="55">
         <f ca="1"/>
-        <v>101.7890625</v>
+        <v>101.6953125</v>
       </c>
       <c r="L68" s="77">
         <f ca="1"/>
@@ -43779,7 +43197,7 @@
       </c>
       <c r="M68" s="55">
         <f ca="1"/>
-        <v>102.1015625</v>
+        <v>101.9453125</v>
       </c>
       <c r="V68" s="77">
         <f ca="1"/>
@@ -43908,7 +43326,7 @@
       </c>
       <c r="W74" s="55">
         <f ca="1"/>
-        <v>80.765000000000001</v>
+        <v>80.67</v>
       </c>
       <c r="Z74" s="77">
         <f ca="1"/>
@@ -43916,7 +43334,7 @@
       </c>
       <c r="AA74" s="55">
         <f ca="1"/>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.3">
@@ -43962,13 +43380,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EA3848-A484-4C66-B70D-DE0974E6095A}">
   <dimension ref="A1:AG136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.6640625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.6640625" style="55" bestFit="1" customWidth="1"/>
@@ -43986,18 +43404,18 @@
     <col min="19" max="19" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.109375"/>
-    <col min="22" max="22" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="55" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" style="55" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" style="55" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" style="55" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="6.88671875" style="55" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" style="77" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" style="55" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="8" style="55" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="77" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="55" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" style="77" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" style="55" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" style="77" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="55" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" style="77" customWidth="1"/>
+    <col min="31" max="31" width="6.88671875" style="55" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" style="77" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" style="55" customWidth="1"/>
     <col min="34" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
@@ -44609,27 +44027,27 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>100.0234375</v>
+        <v>99.984375</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>101.796875</v>
+        <v>101.703125</v>
       </c>
       <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>102.109375</v>
+        <v>101.953125</v>
       </c>
       <c r="F10" s="21" cm="1">
         <f t="array" ref="F10">_xll.BDP(F4,"px_last")</f>
-        <v>84.386799999999994</v>
+        <v>84.334999999999994</v>
       </c>
       <c r="G10" s="22" cm="1">
         <f t="array" ref="G10">_xll.BDP(G4,"px_last")</f>
-        <v>100.4375</v>
+        <v>100.375</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="54"/>
@@ -46372,11 +45790,11 @@
       </c>
       <c r="B28" s="46">
         <f>$B$10</f>
-        <v>112.13500000000001</v>
+        <v>112.0399</v>
       </c>
       <c r="C28" s="47">
         <f t="shared" ref="C28" si="37">(B28/$B$14-1)*$B$5</f>
-        <v>380199.17984768632</v>
+        <v>349557.70357352262</v>
       </c>
       <c r="D28" s="47">
         <f t="shared" ref="D28" si="38">-1*(A28-$A$14)/360*$B$7*$B$5</f>
@@ -46384,11 +45802,11 @@
       </c>
       <c r="E28" s="46">
         <f>$C$10</f>
-        <v>100.0234375</v>
+        <v>99.984375</v>
       </c>
       <c r="F28" s="47">
         <f t="shared" ref="F28" si="39">(E28-$E$14)/100*$C$5</f>
-        <v>106650.390625</v>
+        <v>100107.421875</v>
       </c>
       <c r="G28" s="48">
         <f t="shared" ref="G28" si="40">(A28-$A$14)/360*$C$6*$C$5-(A28-$A$14)/360*$C$7*$C$5*$E$14/100</f>
@@ -46396,11 +45814,11 @@
       </c>
       <c r="H28" s="46">
         <f>$D$10</f>
-        <v>101.796875</v>
+        <v>101.703125</v>
       </c>
       <c r="I28" s="47">
         <f>(H28-$H$14)/100*$D$5</f>
-        <v>90820.3125</v>
+        <v>83789.0625</v>
       </c>
       <c r="J28" s="48">
         <f>(A28-$A$14)/360*$D$6*$D$5-(A28-$A$14)/360*$D$7*$D$5*$H$14/100</f>
@@ -46408,11 +45826,11 @@
       </c>
       <c r="K28" s="46">
         <f>$E$10</f>
-        <v>102.109375</v>
+        <v>101.953125</v>
       </c>
       <c r="L28" s="47">
         <f>(K28-$K$14)/100*$E$5</f>
-        <v>247734.375</v>
+        <v>231328.125</v>
       </c>
       <c r="M28" s="48">
         <f t="shared" ref="M28" si="41">(A28-$A$14)/360*$E$6*$E$5-(A28-$A$14)/360*$E$7*$E$5*$K$14/100</f>
@@ -46420,11 +45838,11 @@
       </c>
       <c r="N28" s="46">
         <f>$F$10</f>
-        <v>84.386799999999994</v>
+        <v>84.334999999999994</v>
       </c>
       <c r="O28" s="47">
         <f t="shared" ref="O28" si="42">(N28/$N$14-1)*$F$5</f>
-        <v>341108.39348564512</v>
+        <v>310207.003519658</v>
       </c>
       <c r="P28" s="48">
         <f t="shared" ref="P28" si="43">-1*(A28-$A$14)/360*$F$7*$F$5</f>
@@ -46432,11 +45850,11 @@
       </c>
       <c r="Q28" s="46">
         <f>$G$10</f>
-        <v>100.4375</v>
+        <v>100.375</v>
       </c>
       <c r="R28" s="47">
         <f t="shared" ref="R28" si="44">(Q28-$Q$14)/100*$G$5</f>
-        <v>432167.96875000006</v>
+        <v>400449.21875</v>
       </c>
       <c r="S28" s="48">
         <f t="shared" ref="S28" si="45">(A28-$A$14)/360*$G$6*$G$5-(A28-$A$14)/360*$G$7*$G$5*$Q$14/100</f>
@@ -46444,7 +45862,7 @@
       </c>
       <c r="T28" s="84">
         <f t="shared" ref="T28" si="46">C28+D28-F28-G28-I28-J28-L28-M28-O28-P28+R28+S28+$J$8</f>
-        <v>-17082.089283296111</v>
+        <v>-18560.456841472798</v>
       </c>
       <c r="V28" s="77">
         <v>45785.665972222225</v>
